--- a/server/legacy_data/Material Master Data.xlsx
+++ b/server/legacy_data/Material Master Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SS Agency\Development\my-erp\server\legacy_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6CFA7D-61A8-4D14-ABC4-1D2D3F55F796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5C9755-458B-46AC-99B2-0BEC3ACEBB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E29E1CD1-8D0E-4D41-A9C5-24A5118B7B92}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$716</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4161" uniqueCount="833">
   <si>
     <t>HSN Code</t>
   </si>
@@ -2468,6 +2469,66 @@
   </si>
   <si>
     <t>NOS</t>
+  </si>
+  <si>
+    <t>Neo Dura - Small (2.5 cm x 2.5 cm)</t>
+  </si>
+  <si>
+    <t>Onlay - Small (2.5 cm x 2.5 cm)</t>
+  </si>
+  <si>
+    <t>Duraplast - Small (2.5 cm x 2.5 cm)</t>
+  </si>
+  <si>
+    <t>Redura - Small (2.5 cm x 2.5 cm)</t>
+  </si>
+  <si>
+    <t>Neo Dura - Medium (2.5 cm x 7.5 cm)</t>
+  </si>
+  <si>
+    <t>Onlay - Medium (2.5 cm x 7.5 cm)</t>
+  </si>
+  <si>
+    <t>Duraplast - Medium (2.5 cm x 7.5 cm)</t>
+  </si>
+  <si>
+    <t>Redura - Medium (2.5 cm x 7.5 cm)</t>
+  </si>
+  <si>
+    <t>Neo Dura - Large (5 cm x 6 cm)</t>
+  </si>
+  <si>
+    <t>Onlay - Large (5 cm x 6 cm)</t>
+  </si>
+  <si>
+    <t>Duraplast - Large (5 cm x 6 cm)</t>
+  </si>
+  <si>
+    <t>Redura - Large (5 cm x 6 cm)</t>
+  </si>
+  <si>
+    <t>Neo Dura - Extra Large ( 7.5 cm x 7.5 cm)</t>
+  </si>
+  <si>
+    <t>Onlay - Extra Large ( 7.5 cm x 7.5 cm)</t>
+  </si>
+  <si>
+    <t>DURA</t>
+  </si>
+  <si>
+    <t>Dura Substitute Product</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Extra Large</t>
   </si>
 </sst>
 </file>
@@ -2565,7 +2626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2599,6 +2660,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2607,7 +2681,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2666,7 +2740,20 @@
     <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{77A703E5-69C2-4716-8491-E192B3AD399E}"/>
@@ -2675,7 +2762,47 @@
     <cellStyle name="Normal 3" xfId="3" xr:uid="{5BC82454-2CF8-4E75-B7D1-1B31948E8A25}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{78B3CC83-63B8-43AA-B081-437859B26AFA}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3049,10 +3176,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L716"/>
+  <dimension ref="A1:L730"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L716"/>
+    <sheetView tabSelected="1" topLeftCell="A702" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A725" sqref="A725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30207,60 +30334,573 @@
       </c>
     </row>
     <row r="716" spans="1:12">
-      <c r="A716" s="1">
+      <c r="A716" s="23">
         <v>1000715</v>
       </c>
-      <c r="B716" s="19" t="s">
+      <c r="B716" s="24" t="s">
         <v>715</v>
       </c>
-      <c r="C716" s="20">
-        <v>90211000</v>
-      </c>
-      <c r="D716" s="17">
-        <v>5</v>
-      </c>
-      <c r="E716" s="21">
+      <c r="C716" s="25">
+        <v>90211000</v>
+      </c>
+      <c r="D716" s="26">
+        <v>5</v>
+      </c>
+      <c r="E716" s="27">
         <v>23206</v>
       </c>
-      <c r="F716" s="21">
+      <c r="F716" s="27">
         <v>21260</v>
       </c>
-      <c r="G716" s="21">
+      <c r="G716" s="27">
         <v>21260</v>
       </c>
-      <c r="H716" s="17" t="s">
+      <c r="H716" s="26" t="s">
         <v>717</v>
       </c>
-      <c r="I716" s="17" t="s">
+      <c r="I716" s="26" t="s">
         <v>745</v>
       </c>
-      <c r="J716" s="17" t="s">
+      <c r="J716" s="26" t="s">
         <v>734</v>
       </c>
-      <c r="K716" s="17">
+      <c r="K716" s="26">
         <v>1.5</v>
       </c>
       <c r="L716" s="22" t="s">
         <v>812</v>
       </c>
     </row>
+    <row r="717" spans="1:12">
+      <c r="A717" s="9">
+        <v>30000001</v>
+      </c>
+      <c r="B717" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="C717" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D717" s="17">
+        <v>5</v>
+      </c>
+      <c r="E717" s="21">
+        <v>25000</v>
+      </c>
+      <c r="F717" s="11">
+        <v>19000</v>
+      </c>
+      <c r="G717" s="11">
+        <v>19000</v>
+      </c>
+      <c r="H717" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I717" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J717" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="K717" s="17"/>
+      <c r="L717" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12">
+      <c r="A718" s="9">
+        <v>30000002</v>
+      </c>
+      <c r="B718" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="C718" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D718" s="17">
+        <v>5</v>
+      </c>
+      <c r="E718" s="21">
+        <v>25000</v>
+      </c>
+      <c r="F718" s="11">
+        <v>19000</v>
+      </c>
+      <c r="G718" s="11">
+        <v>19000</v>
+      </c>
+      <c r="H718" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I718" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J718" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="K718" s="17"/>
+      <c r="L718" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12">
+      <c r="A719" s="9">
+        <v>30000003</v>
+      </c>
+      <c r="B719" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="C719" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D719" s="17">
+        <v>5</v>
+      </c>
+      <c r="E719" s="21">
+        <v>36842.105263157893</v>
+      </c>
+      <c r="F719" s="11">
+        <v>28000</v>
+      </c>
+      <c r="G719" s="11">
+        <v>28000</v>
+      </c>
+      <c r="H719" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I719" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J719" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="K719" s="17"/>
+      <c r="L719" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12">
+      <c r="A720" s="9">
+        <v>30000004</v>
+      </c>
+      <c r="B720" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="C720" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D720" s="17">
+        <v>5</v>
+      </c>
+      <c r="E720" s="21">
+        <v>47368.42105263158</v>
+      </c>
+      <c r="F720" s="11">
+        <v>36000</v>
+      </c>
+      <c r="G720" s="11">
+        <v>36000</v>
+      </c>
+      <c r="H720" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I720" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J720" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="K720" s="17"/>
+      <c r="L720" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12">
+      <c r="A721" s="9">
+        <v>30000005</v>
+      </c>
+      <c r="B721" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="C721" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D721" s="17">
+        <v>5</v>
+      </c>
+      <c r="E721" s="21">
+        <v>59210.526315789473</v>
+      </c>
+      <c r="F721" s="11">
+        <v>45000</v>
+      </c>
+      <c r="G721" s="11">
+        <v>45000</v>
+      </c>
+      <c r="H721" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I721" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J721" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="K721" s="17"/>
+      <c r="L721" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12">
+      <c r="A722" s="9">
+        <v>30000006</v>
+      </c>
+      <c r="B722" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C722" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D722" s="17">
+        <v>5</v>
+      </c>
+      <c r="E722" s="21">
+        <v>76315.789473684214</v>
+      </c>
+      <c r="F722" s="11">
+        <v>58000</v>
+      </c>
+      <c r="G722" s="11">
+        <v>58000</v>
+      </c>
+      <c r="H722" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I722" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J722" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="K722" s="17"/>
+      <c r="L722" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="723" spans="1:12">
+      <c r="A723" s="9">
+        <v>30000007</v>
+      </c>
+      <c r="B723" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="C723" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D723" s="17">
+        <v>5</v>
+      </c>
+      <c r="E723" s="21">
+        <v>94736.84210526316</v>
+      </c>
+      <c r="F723" s="11">
+        <v>72000</v>
+      </c>
+      <c r="G723" s="11">
+        <v>72000</v>
+      </c>
+      <c r="H723" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I723" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J723" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="K723" s="17"/>
+      <c r="L723" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="724" spans="1:12">
+      <c r="A724" s="9">
+        <v>30000008</v>
+      </c>
+      <c r="B724" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="C724" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D724" s="17">
+        <v>5</v>
+      </c>
+      <c r="E724" s="21">
+        <v>111842.10526315789</v>
+      </c>
+      <c r="F724" s="11">
+        <v>85000</v>
+      </c>
+      <c r="G724" s="11">
+        <v>85000</v>
+      </c>
+      <c r="H724" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I724" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J724" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="K724" s="17"/>
+      <c r="L724" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="725" spans="1:12">
+      <c r="A725" s="9">
+        <v>30000009</v>
+      </c>
+      <c r="B725" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="C725" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D725" s="17">
+        <v>5</v>
+      </c>
+      <c r="E725" s="21">
+        <v>144736.84210526315</v>
+      </c>
+      <c r="F725" s="11">
+        <v>110000</v>
+      </c>
+      <c r="G725" s="11">
+        <v>110000</v>
+      </c>
+      <c r="H725" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I725" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J725" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="K725" s="17"/>
+      <c r="L725" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="726" spans="1:12">
+      <c r="A726" s="9">
+        <v>30000010</v>
+      </c>
+      <c r="B726" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C726" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D726" s="17">
+        <v>5</v>
+      </c>
+      <c r="E726" s="21">
+        <v>164473.68421052632</v>
+      </c>
+      <c r="F726" s="11">
+        <v>125000</v>
+      </c>
+      <c r="G726" s="11">
+        <v>125000</v>
+      </c>
+      <c r="H726" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I726" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J726" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="K726" s="17"/>
+      <c r="L726" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="727" spans="1:12">
+      <c r="A727" s="9">
+        <v>30000011</v>
+      </c>
+      <c r="B727" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="C727" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D727" s="17">
+        <v>5</v>
+      </c>
+      <c r="E727" s="21">
+        <v>184210.5263157895</v>
+      </c>
+      <c r="F727" s="11">
+        <v>140000</v>
+      </c>
+      <c r="G727" s="11">
+        <v>140000</v>
+      </c>
+      <c r="H727" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I727" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J727" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="K727" s="17"/>
+      <c r="L727" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="728" spans="1:12">
+      <c r="A728" s="9">
+        <v>30000012</v>
+      </c>
+      <c r="B728" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="C728" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D728" s="17">
+        <v>5</v>
+      </c>
+      <c r="E728" s="21">
+        <v>210526.31578947371</v>
+      </c>
+      <c r="F728" s="11">
+        <v>160000</v>
+      </c>
+      <c r="G728" s="11">
+        <v>160000</v>
+      </c>
+      <c r="H728" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I728" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J728" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="K728" s="17"/>
+      <c r="L728" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="729" spans="1:12">
+      <c r="A729" s="9">
+        <v>30000013</v>
+      </c>
+      <c r="B729" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="C729" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D729" s="17">
+        <v>5</v>
+      </c>
+      <c r="E729" s="21">
+        <v>236842.10526315792</v>
+      </c>
+      <c r="F729" s="11">
+        <v>180000</v>
+      </c>
+      <c r="G729" s="11">
+        <v>180000</v>
+      </c>
+      <c r="H729" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I729" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J729" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="K729" s="17"/>
+      <c r="L729" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="730" spans="1:12">
+      <c r="A730" s="9">
+        <v>30000014</v>
+      </c>
+      <c r="B730" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="C730" s="20">
+        <v>90219090</v>
+      </c>
+      <c r="D730" s="17">
+        <v>5</v>
+      </c>
+      <c r="E730" s="21">
+        <v>263157.89473684214</v>
+      </c>
+      <c r="F730" s="11">
+        <v>200000</v>
+      </c>
+      <c r="G730" s="11">
+        <v>200000</v>
+      </c>
+      <c r="H730" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="I730" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J730" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="K730" s="17"/>
+      <c r="L730" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="J1:J716" xr:uid="{2547860E-5F2E-46FC-9850-7E608E04774A}"/>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="A717:A730">
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A237:B692">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237:B692">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B263">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B354:B362">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B696:B716">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B717:B730">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.75" header="0.05" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
